--- a/database/role_perm.xlsx
+++ b/database/role_perm.xlsx
@@ -91,7 +91,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,12 +112,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -125,6 +131,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -151,20 +164,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,143 +270,120 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="8.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="n">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/database/role_perm.xlsx
+++ b/database/role_perm.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="u" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">can_view:查看</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can_add:添加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can_edit:编辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can_delete:删除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editor:编辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u</t>
+  </si>
   <si>
     <t xml:space="preserve">assign_group:分组</t>
   </si>
@@ -28,18 +47,6 @@
     <t xml:space="preserve">assign_role:权限</t>
   </si>
   <si>
-    <t xml:space="preserve">can_view:查看</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can_add:添加</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can_edit:编辑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can_delete:删除</t>
-  </si>
-  <si>
     <t xml:space="preserve">can_review:复查</t>
   </si>
   <si>
@@ -47,9 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve">administrators:管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">editor:编辑</t>
   </si>
 </sst>
 </file>
@@ -100,12 +104,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFDEEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEEBF7"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
@@ -120,6 +118,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -177,19 +181,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,10 +274,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -282,15 +286,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.25"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="10" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,87 +304,43 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -393,4 +350,93 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.64"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/database/role_perm.xlsx
+++ b/database/role_perm.xlsx
@@ -277,7 +277,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -360,10 +360,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.5"/>
